--- a/TSKC_Assignment7.xlsx
+++ b/TSKC_Assignment7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sivag\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sivag\OneDrive\Desktop\excel-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11471" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11486" uniqueCount="1912">
   <si>
     <t>S.No</t>
   </si>
@@ -5689,9 +5689,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Niha@New Delhi@New Delhi</t>
-  </si>
-  <si>
     <t>Ramya@Hyderabad@Telangana</t>
   </si>
   <si>
@@ -5728,9 +5725,6 @@
     <t>ctrl+shift+'+'</t>
   </si>
   <si>
-    <t>Alt+E+L</t>
-  </si>
-  <si>
     <t>ctrl+P</t>
   </si>
   <si>
@@ -5746,7 +5740,52 @@
     <t>sumifs is used to sum of range cells on a multiple conditions</t>
   </si>
   <si>
-    <t>Ctrl+R</t>
+    <t>Niha@NewDelhi@New Delhi</t>
+  </si>
+  <si>
+    <t>ctrl+'-'</t>
+  </si>
+  <si>
+    <t>ctrl+y</t>
+  </si>
+  <si>
+    <t>ctrl+B</t>
+  </si>
+  <si>
+    <t>Ctrl+F12</t>
+  </si>
+  <si>
+    <t>Alt+W+F+F</t>
+  </si>
+  <si>
+    <t>Ctrl+H</t>
+  </si>
+  <si>
+    <t>Ctrl+1</t>
+  </si>
+  <si>
+    <t>Ctrl+N</t>
+  </si>
+  <si>
+    <t>Ctrl+Z</t>
+  </si>
+  <si>
+    <t>Ctrl+U</t>
+  </si>
+  <si>
+    <t>Ctrl+G</t>
+  </si>
+  <si>
+    <t>Ctrl+A</t>
+  </si>
+  <si>
+    <t>Shift+Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sum ifs contains sum range and more than one criteria</t>
+  </si>
+  <si>
+    <t>sumif is contains range criteria ans sum range</t>
   </si>
 </sst>
 </file>
@@ -5944,6 +5983,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="7"/>
       <color rgb="FF4D4D4C"/>
       <name val="Courier New"/>
@@ -6689,6 +6729,7 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6716,7 +6757,6 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -6725,37 +6765,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
       <border diagonalUp="0" diagonalDown="0">
@@ -7145,6 +7155,26 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7159,26 +7189,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q228" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q228" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:Q228"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Branch" dataDxfId="19"/>
-    <tableColumn id="2" name="Emp Code" dataDxfId="18"/>
-    <tableColumn id="3" name="Emp Name" dataDxfId="17"/>
-    <tableColumn id="4" name="Designation" dataDxfId="16"/>
-    <tableColumn id="5" name="Date of Joining" dataDxfId="15"/>
-    <tableColumn id="6" name="TAG" dataDxfId="14"/>
-    <tableColumn id="7" name="Emp Status" dataDxfId="13"/>
-    <tableColumn id="8" name="Branch EligibilitY" dataDxfId="12"/>
-    <tableColumn id="9" name="Portfolio growth _x000a_(Jan to Feb)" dataDxfId="11"/>
-    <tableColumn id="10" name="No of New Clients" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="11" name="Eligible for Incentive (Y/N)" dataDxfId="9"/>
-    <tableColumn id="12" name="Final EligibilitY" dataDxfId="8"/>
-    <tableColumn id="13" name="&lt;15% yield " dataDxfId="7"/>
-    <tableColumn id="14" name="15% to &lt;20% Yield " dataDxfId="6"/>
-    <tableColumn id="15" name="20% and more Yield" dataDxfId="5"/>
-    <tableColumn id="16" name="Total" dataDxfId="4"/>
-    <tableColumn id="17" name="Incentive/_x000a_Disincentive" dataDxfId="3">
+    <tableColumn id="1" name="Branch" dataDxfId="16"/>
+    <tableColumn id="2" name="Emp Code" dataDxfId="15"/>
+    <tableColumn id="3" name="Emp Name" dataDxfId="14"/>
+    <tableColumn id="4" name="Designation" dataDxfId="13"/>
+    <tableColumn id="5" name="Date of Joining" dataDxfId="12"/>
+    <tableColumn id="6" name="TAG" dataDxfId="11"/>
+    <tableColumn id="7" name="Emp Status" dataDxfId="10"/>
+    <tableColumn id="8" name="Branch EligibilitY" dataDxfId="9"/>
+    <tableColumn id="9" name="Portfolio growth _x000a_(Jan to Feb)" dataDxfId="8"/>
+    <tableColumn id="10" name="No of New Clients" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="11" name="Eligible for Incentive (Y/N)" dataDxfId="6"/>
+    <tableColumn id="12" name="Final EligibilitY" dataDxfId="5"/>
+    <tableColumn id="13" name="&lt;15% yield " dataDxfId="4"/>
+    <tableColumn id="14" name="15% to &lt;20% Yield " dataDxfId="3"/>
+    <tableColumn id="15" name="20% and more Yield" dataDxfId="2"/>
+    <tableColumn id="16" name="Total" dataDxfId="1"/>
+    <tableColumn id="17" name="Incentive/_x000a_Disincentive" dataDxfId="0">
       <calculatedColumnFormula>COUNTIFS($K:$K,"Y",$B:$B,B2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -72573,10 +72603,10 @@
   </sheetData>
   <autoFilter ref="A1:V960"/>
   <conditionalFormatting sqref="V246">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B960">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -72587,8 +72617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.4140625" defaultRowHeight="22.25" customHeight="1"/>
@@ -72615,7 +72645,7 @@
         <v>1762</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
@@ -72626,7 +72656,7 @@
         <v>1763</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
@@ -72637,7 +72667,7 @@
         <v>1764</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
@@ -72647,7 +72677,9 @@
       <c r="B5" s="48" t="s">
         <v>1765</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="48" t="s">
+        <v>1898</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
       <c r="A6" s="47">
@@ -72656,7 +72688,9 @@
       <c r="B6" s="48" t="s">
         <v>1766</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="48" t="s">
+        <v>1899</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
       <c r="A7" s="47">
@@ -72666,7 +72700,7 @@
         <v>1767</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
@@ -72676,7 +72710,9 @@
       <c r="B8" s="48" t="s">
         <v>1768</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="48" t="s">
+        <v>1900</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
       <c r="A9" s="47">
@@ -72685,7 +72721,9 @@
       <c r="B9" s="48" t="s">
         <v>1769</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>1901</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
       <c r="A10" s="47">
@@ -72695,7 +72733,7 @@
         <v>1770</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
@@ -72705,7 +72743,9 @@
       <c r="B11" s="48" t="s">
         <v>1771</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="48" t="s">
+        <v>1903</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
       <c r="A12" s="47">
@@ -72714,7 +72754,9 @@
       <c r="B12" s="48" t="s">
         <v>1772</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="48" t="s">
+        <v>1903</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
       <c r="A13" s="47">
@@ -72724,7 +72766,7 @@
         <v>1773</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
@@ -72734,7 +72776,9 @@
       <c r="B14" s="48" t="s">
         <v>1774</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>1905</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
       <c r="A15" s="47">
@@ -72743,7 +72787,9 @@
       <c r="B15" s="48" t="s">
         <v>1775</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>1904</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
       <c r="A16" s="47">
@@ -72753,7 +72799,7 @@
         <v>1776</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
@@ -72763,7 +72809,9 @@
       <c r="B17" s="48" t="s">
         <v>1777</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>1906</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
       <c r="A18" s="47">
@@ -72772,7 +72820,9 @@
       <c r="B18" s="48" t="s">
         <v>1778</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>1908</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="30.5" customHeight="1" thickBot="1">
       <c r="A19" s="47">
@@ -72781,7 +72831,9 @@
       <c r="B19" s="48" t="s">
         <v>1779</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>1908</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
       <c r="A20" s="47">
@@ -72790,7 +72842,9 @@
       <c r="B20" s="48" t="s">
         <v>1780</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>1907</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="22.25" customHeight="1" thickBot="1">
       <c r="A21" s="47">
@@ -72799,7 +72853,9 @@
       <c r="B21" s="48" t="s">
         <v>1781</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="48" t="s">
+        <v>1909</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -85785,11 +85841,11 @@
   <sheetData>
     <row r="3" spans="1:7" ht="14.5" thickBot="1"/>
     <row r="4" spans="1:7" ht="15" thickBot="1">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="91" t="s">
         <v>1782</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="49"/>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
@@ -85969,8 +86025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N302"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -85984,27 +86040,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="15" thickBot="1">
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="94" t="s">
         <v>1790</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="96"/>
     </row>
     <row r="2" spans="3:14" ht="14.5" thickBot="1"/>
     <row r="3" spans="3:14" ht="14.5" thickBot="1">
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="97" t="s">
         <v>1791</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
       <c r="I3" s="59" t="s">
         <v>1792</v>
       </c>
@@ -89620,8 +89676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -89635,6 +89691,16 @@
         <v>1873</v>
       </c>
     </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>1910</v>
+      </c>
+    </row>
     <row r="6" spans="3:3">
       <c r="C6" s="69" t="s">
         <v>1874</v>
@@ -89642,12 +89708,12 @@
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="9" spans="3:3">
@@ -89657,17 +89723,17 @@
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="16" spans="3:3">
@@ -89686,7 +89752,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="203" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -89694,12 +89760,12 @@
     <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.9140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.4140625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="71" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -89710,56 +89776,60 @@
         <v>1760</v>
       </c>
       <c r="C2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D2" t="s">
         <v>1881</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="74" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B3" t="str">
-        <f>LEFT(A3,5)</f>
+        <f>LEFT(A3,FIND("@",A3)-1)</f>
         <v>Ramya</v>
       </c>
       <c r="C3" t="str">
-        <f>MID(A3,7,9)</f>
+        <f>MID(A3, FIND("@",A3)+1, FIND("@",A3, FIND("@",A3)+1) - FIND("@",A3) - 1)</f>
         <v>Hyderabad</v>
       </c>
       <c r="D3" t="str">
-        <f>RIGHT(A3,9)</f>
+        <f>RIGHT(A3,LEN(A3)-FIND("@",A3,FIND("@",A3)+1))</f>
         <v>Telangana</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="99" t="s">
-        <v>1883</v>
+      <c r="A4" s="90" t="s">
+        <v>1882</v>
       </c>
       <c r="B4" t="str">
-        <f>LEFT(A4,9)</f>
+        <f t="shared" ref="B4:B5" si="0">LEFT(A4,FIND("@",A4)-1)</f>
         <v>Vaishnavi</v>
       </c>
       <c r="C4" t="str">
-        <f>MID(A4,11,10)</f>
+        <f t="shared" ref="C4:C5" si="1">MID(A4, FIND("@",A4)+1, FIND("@",A4, FIND("@",A4)+1) - FIND("@",A4) - 1)</f>
         <v>Amaravathi</v>
       </c>
       <c r="D4" t="str">
-        <f>RIGHT(A4,6)</f>
+        <f t="shared" ref="D4" si="2">RIGHT(A4,LEN(A4)-FIND("@",A4,FIND("@",A4)+1))</f>
         <v>Andhra</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="74" t="s">
-        <v>1879</v>
+      <c r="A5" s="90" t="s">
+        <v>1896</v>
       </c>
       <c r="B5" t="str">
-        <f>LEFT(A5,4)</f>
+        <f t="shared" si="0"/>
         <v>Niha</v>
       </c>
       <c r="C5" t="str">
-        <f>MID(A5,6,9)</f>
+        <f t="shared" si="1"/>
+        <v>NewDelhi</v>
+      </c>
+      <c r="D5" t="str">
+        <f>RIGHT(A5,LEN(A5)-FIND("@",A5,FIND("@",A5)+1))</f>
         <v>New Delhi</v>
       </c>
     </row>
@@ -89768,16 +89838,12 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B8">
-        <f>COUNTIF(A8,"*/*")</f>
-        <v>1</v>
+        <v>1883</v>
       </c>
       <c r="C8" s="100">
         <f>LEN(A8) - LEN(SUBSTITUTE(A8, "/", ""))</f>
@@ -89787,8 +89853,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>